--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cirbp-Trem1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cirbp-Trem1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.27803766666666</v>
+        <v>8.052024666666666</v>
       </c>
       <c r="H2">
-        <v>36.83411299999999</v>
+        <v>24.156074</v>
       </c>
       <c r="I2">
-        <v>0.2582426133674075</v>
+        <v>0.1791339256439199</v>
       </c>
       <c r="J2">
-        <v>0.280390203859815</v>
+        <v>0.190543499292721</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.067773</v>
+        <v>0.006995333333333333</v>
       </c>
       <c r="N2">
-        <v>3.203319</v>
+        <v>0.020986</v>
       </c>
       <c r="O2">
-        <v>0.09910750252307587</v>
+        <v>0.003071634989180631</v>
       </c>
       <c r="P2">
-        <v>0.09910750252307587</v>
+        <v>0.003071634989180632</v>
       </c>
       <c r="Q2">
-        <v>13.11015711344966</v>
+        <v>0.05632659655155555</v>
       </c>
       <c r="R2">
-        <v>117.991414021047</v>
+        <v>0.506939368964</v>
       </c>
       <c r="S2">
-        <v>0.02559378045587605</v>
+        <v>0.0005502340337571459</v>
       </c>
       <c r="T2">
-        <v>0.02778877283648237</v>
+        <v>0.000585280079388437</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,51 +602,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.27803766666666</v>
+        <v>8.052024666666666</v>
       </c>
       <c r="H3">
-        <v>36.83411299999999</v>
+        <v>24.156074</v>
       </c>
       <c r="I3">
-        <v>0.2582426133674075</v>
+        <v>0.1791339256439199</v>
       </c>
       <c r="J3">
-        <v>0.280390203859815</v>
+        <v>0.190543499292721</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>9.706113666666665</v>
+        <v>1.994843666666667</v>
       </c>
       <c r="N3">
-        <v>29.118341</v>
+        <v>5.984531</v>
       </c>
       <c r="O3">
-        <v>0.900892497476924</v>
+        <v>0.8759313262859122</v>
       </c>
       <c r="P3">
-        <v>0.9008924974769242</v>
+        <v>0.8759313262859124</v>
       </c>
       <c r="Q3">
-        <v>119.1720291962814</v>
+        <v>16.06253041014378</v>
       </c>
       <c r="R3">
-        <v>1072.548262766533</v>
+        <v>144.562773691294</v>
       </c>
       <c r="S3">
-        <v>0.2326488329115314</v>
+        <v>0.1569090170720807</v>
       </c>
       <c r="T3">
-        <v>0.2526014310233327</v>
+        <v>0.166903020050632</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.67745566666667</v>
+        <v>8.052024666666666</v>
       </c>
       <c r="H4">
-        <v>35.032367</v>
+        <v>24.156074</v>
       </c>
       <c r="I4">
-        <v>0.2456106383375141</v>
+        <v>0.1791339256439199</v>
       </c>
       <c r="J4">
-        <v>0.266674876216562</v>
+        <v>0.190543499292721</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.067773</v>
+        <v>0.2755583333333333</v>
       </c>
       <c r="N4">
-        <v>3.203319</v>
+        <v>0.826675</v>
       </c>
       <c r="O4">
-        <v>0.09910750252307587</v>
+        <v>0.120997038724907</v>
       </c>
       <c r="P4">
-        <v>0.09910750252307587</v>
+        <v>0.120997038724907</v>
       </c>
       <c r="Q4">
-        <v>12.46887186956367</v>
+        <v>2.218802497105556</v>
       </c>
       <c r="R4">
-        <v>112.219846826073</v>
+        <v>19.96922247395</v>
       </c>
       <c r="S4">
-        <v>0.02434185695872946</v>
+        <v>0.02167467453808199</v>
       </c>
       <c r="T4">
-        <v>0.02642948096747386</v>
+        <v>0.02305519916270066</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -732,45 +732,45 @@
         <v>35.032367</v>
       </c>
       <c r="I5">
-        <v>0.2456106383375141</v>
+        <v>0.2597891290326613</v>
       </c>
       <c r="J5">
-        <v>0.266674876216562</v>
+        <v>0.2763358729852725</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>9.706113666666665</v>
+        <v>0.006995333333333333</v>
       </c>
       <c r="N5">
-        <v>29.118341</v>
+        <v>0.020986</v>
       </c>
       <c r="O5">
-        <v>0.900892497476924</v>
+        <v>0.003071634989180631</v>
       </c>
       <c r="P5">
-        <v>0.9008924974769242</v>
+        <v>0.003071634989180632</v>
       </c>
       <c r="Q5">
-        <v>113.3427120381274</v>
+        <v>0.08168769487355555</v>
       </c>
       <c r="R5">
-        <v>1020.084408343147</v>
+        <v>0.7351892538620001</v>
       </c>
       <c r="S5">
-        <v>0.2212687813787846</v>
+        <v>0.0007979773785454841</v>
       </c>
       <c r="T5">
-        <v>0.2402453952490882</v>
+        <v>0.000848802936227338</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -788,51 +788,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.929327</v>
+        <v>11.67745566666667</v>
       </c>
       <c r="H6">
-        <v>23.787981</v>
+        <v>35.032367</v>
       </c>
       <c r="I6">
-        <v>0.1667766610851804</v>
+        <v>0.2597891290326613</v>
       </c>
       <c r="J6">
-        <v>0.1810798821734463</v>
+        <v>0.2763358729852725</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1.067773</v>
+        <v>1.994843666666667</v>
       </c>
       <c r="N6">
-        <v>3.203319</v>
+        <v>5.984531</v>
       </c>
       <c r="O6">
-        <v>0.09910750252307587</v>
+        <v>0.8759313262859122</v>
       </c>
       <c r="P6">
-        <v>0.09910750252307587</v>
+        <v>0.8759313262859124</v>
       </c>
       <c r="Q6">
-        <v>8.466721278771001</v>
+        <v>23.29469847943078</v>
       </c>
       <c r="R6">
-        <v>76.200491508939</v>
+        <v>209.652286314877</v>
       </c>
       <c r="S6">
-        <v>0.01652881835928969</v>
+        <v>0.227557436348241</v>
       </c>
       <c r="T6">
-        <v>0.01794637487938311</v>
+        <v>0.2420512477243652</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.929327</v>
+        <v>11.67745566666667</v>
       </c>
       <c r="H7">
-        <v>23.787981</v>
+        <v>35.032367</v>
       </c>
       <c r="I7">
-        <v>0.1667766610851804</v>
+        <v>0.2597891290326613</v>
       </c>
       <c r="J7">
-        <v>0.1810798821734463</v>
+        <v>0.2763358729852725</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,33 +868,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>9.706113666666665</v>
+        <v>0.2755583333333333</v>
       </c>
       <c r="N7">
-        <v>29.118341</v>
+        <v>0.826675</v>
       </c>
       <c r="O7">
-        <v>0.900892497476924</v>
+        <v>0.120997038724907</v>
       </c>
       <c r="P7">
-        <v>0.9008924974769242</v>
+        <v>0.120997038724907</v>
       </c>
       <c r="Q7">
-        <v>76.96294916216898</v>
+        <v>3.217820221080556</v>
       </c>
       <c r="R7">
-        <v>692.6665424595209</v>
+        <v>28.960381989725</v>
       </c>
       <c r="S7">
-        <v>0.1502478427258907</v>
+        <v>0.03143371530587478</v>
       </c>
       <c r="T7">
-        <v>0.1631335072940632</v>
+        <v>0.03343582232468001</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.2664205</v>
+        <v>9.528830666666666</v>
       </c>
       <c r="H8">
-        <v>22.532841</v>
+        <v>28.586492</v>
       </c>
       <c r="I8">
-        <v>0.2369653809675939</v>
+        <v>0.2119885264612334</v>
       </c>
       <c r="J8">
-        <v>0.1715254520050693</v>
+        <v>0.2254907075621384</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>1.067773</v>
+        <v>0.006995333333333333</v>
       </c>
       <c r="N8">
-        <v>3.203319</v>
+        <v>0.020986</v>
       </c>
       <c r="O8">
-        <v>0.09910750252307587</v>
+        <v>0.003071634989180631</v>
       </c>
       <c r="P8">
-        <v>0.09910750252307587</v>
+        <v>0.003071634989180632</v>
       </c>
       <c r="Q8">
-        <v>12.0299796165465</v>
+        <v>0.06665734679022221</v>
       </c>
       <c r="R8">
-        <v>72.17987769927899</v>
+        <v>0.599916121112</v>
       </c>
       <c r="S8">
-        <v>0.02348504709212745</v>
+        <v>0.0006511513751831685</v>
       </c>
       <c r="T8">
-        <v>0.01699945916736413</v>
+        <v>0.0006926251470829621</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.2664205</v>
+        <v>9.528830666666666</v>
       </c>
       <c r="H9">
-        <v>22.532841</v>
+        <v>28.586492</v>
       </c>
       <c r="I9">
-        <v>0.2369653809675939</v>
+        <v>0.2119885264612334</v>
       </c>
       <c r="J9">
-        <v>0.1715254520050693</v>
+        <v>0.2254907075621384</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>9.706113666666665</v>
+        <v>1.994843666666667</v>
       </c>
       <c r="N9">
-        <v>29.118341</v>
+        <v>5.984531</v>
       </c>
       <c r="O9">
-        <v>0.900892497476924</v>
+        <v>0.8759313262859122</v>
       </c>
       <c r="P9">
-        <v>0.9008924974769242</v>
+        <v>0.8759313262859124</v>
       </c>
       <c r="Q9">
-        <v>109.3531579894635</v>
+        <v>19.00852750613911</v>
       </c>
       <c r="R9">
-        <v>656.1189479367808</v>
+        <v>171.076747555252</v>
       </c>
       <c r="S9">
-        <v>0.2134803338754664</v>
+        <v>0.1856873911405843</v>
       </c>
       <c r="T9">
-        <v>0.1545259928377052</v>
+        <v>0.1975143745400527</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.393343333333333</v>
+        <v>9.528830666666666</v>
       </c>
       <c r="H10">
-        <v>13.18003</v>
+        <v>28.586492</v>
       </c>
       <c r="I10">
-        <v>0.09240470624230404</v>
+        <v>0.2119885264612334</v>
       </c>
       <c r="J10">
-        <v>0.1003295857451075</v>
+        <v>0.2254907075621384</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,33 +1054,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.067773</v>
+        <v>0.2755583333333333</v>
       </c>
       <c r="N10">
-        <v>3.203319</v>
+        <v>0.826675</v>
       </c>
       <c r="O10">
-        <v>0.09910750252307587</v>
+        <v>0.120997038724907</v>
       </c>
       <c r="P10">
-        <v>0.09910750252307587</v>
+        <v>0.120997038724907</v>
       </c>
       <c r="Q10">
-        <v>4.691093391063333</v>
+        <v>2.625748697122222</v>
       </c>
       <c r="R10">
-        <v>42.21984051957</v>
+        <v>23.6317382741</v>
       </c>
       <c r="S10">
-        <v>0.009157999657053233</v>
+        <v>0.02564998394546582</v>
       </c>
       <c r="T10">
-        <v>0.009943414672372398</v>
+        <v>0.02728370787500275</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,365 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>8.0746515</v>
+      </c>
+      <c r="H11">
+        <v>16.149303</v>
+      </c>
+      <c r="I11">
+        <v>0.1796373063025349</v>
+      </c>
+      <c r="J11">
+        <v>0.1273859611772359</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.006995333333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.020986</v>
+      </c>
+      <c r="O11">
+        <v>0.003071634989180631</v>
+      </c>
+      <c r="P11">
+        <v>0.003071634989180632</v>
+      </c>
+      <c r="Q11">
+        <v>0.056484878793</v>
+      </c>
+      <c r="R11">
+        <v>0.338909272758</v>
+      </c>
+      <c r="S11">
+        <v>0.0005517802354010245</v>
+      </c>
+      <c r="T11">
+        <v>0.0003912831754824034</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>8.0746515</v>
+      </c>
+      <c r="H12">
+        <v>16.149303</v>
+      </c>
+      <c r="I12">
+        <v>0.1796373063025349</v>
+      </c>
+      <c r="J12">
+        <v>0.1273859611772359</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.994843666666667</v>
+      </c>
+      <c r="N12">
+        <v>5.984531</v>
+      </c>
+      <c r="O12">
+        <v>0.8759313262859122</v>
+      </c>
+      <c r="P12">
+        <v>0.8759313262859124</v>
+      </c>
+      <c r="Q12">
+        <v>16.1076674053155</v>
+      </c>
+      <c r="R12">
+        <v>96.646004431893</v>
+      </c>
+      <c r="S12">
+        <v>0.157349943960008</v>
+      </c>
+      <c r="T12">
+        <v>0.111581353924182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>4.393343333333333</v>
-      </c>
-      <c r="H11">
-        <v>13.18003</v>
-      </c>
-      <c r="I11">
-        <v>0.09240470624230404</v>
-      </c>
-      <c r="J11">
-        <v>0.1003295857451075</v>
-      </c>
-      <c r="K11">
+      <c r="E13">
         <v>2</v>
       </c>
-      <c r="L11">
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>8.0746515</v>
+      </c>
+      <c r="H13">
+        <v>16.149303</v>
+      </c>
+      <c r="I13">
+        <v>0.1796373063025349</v>
+      </c>
+      <c r="J13">
+        <v>0.1273859611772359</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M11">
-        <v>9.706113666666665</v>
-      </c>
-      <c r="N11">
-        <v>29.118341</v>
-      </c>
-      <c r="O11">
-        <v>0.900892497476924</v>
-      </c>
-      <c r="P11">
-        <v>0.9008924974769242</v>
-      </c>
-      <c r="Q11">
-        <v>42.64228977002555</v>
-      </c>
-      <c r="R11">
-        <v>383.78060793023</v>
-      </c>
-      <c r="S11">
-        <v>0.0832467065852508</v>
-      </c>
-      <c r="T11">
-        <v>0.0903861710727351</v>
+      <c r="M13">
+        <v>0.2755583333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.826675</v>
+      </c>
+      <c r="O13">
+        <v>0.120997038724907</v>
+      </c>
+      <c r="P13">
+        <v>0.120997038724907</v>
+      </c>
+      <c r="Q13">
+        <v>2.2250375095875</v>
+      </c>
+      <c r="R13">
+        <v>13.350225057525</v>
+      </c>
+      <c r="S13">
+        <v>0.02173558210712579</v>
+      </c>
+      <c r="T13">
+        <v>0.01541332407757152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>7.616784666666667</v>
+      </c>
+      <c r="H14">
+        <v>22.850354</v>
+      </c>
+      <c r="I14">
+        <v>0.1694511125596505</v>
+      </c>
+      <c r="J14">
+        <v>0.1802439589826321</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.006995333333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.020986</v>
+      </c>
+      <c r="O14">
+        <v>0.003071634989180631</v>
+      </c>
+      <c r="P14">
+        <v>0.003071634989180632</v>
+      </c>
+      <c r="Q14">
+        <v>0.05328194767155556</v>
+      </c>
+      <c r="R14">
+        <v>0.479537529044</v>
+      </c>
+      <c r="S14">
+        <v>0.0005204919662938081</v>
+      </c>
+      <c r="T14">
+        <v>0.0005536436509994913</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>7.616784666666667</v>
+      </c>
+      <c r="H15">
+        <v>22.850354</v>
+      </c>
+      <c r="I15">
+        <v>0.1694511125596505</v>
+      </c>
+      <c r="J15">
+        <v>0.1802439589826321</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.994843666666667</v>
+      </c>
+      <c r="N15">
+        <v>5.984531</v>
+      </c>
+      <c r="O15">
+        <v>0.8759313262859122</v>
+      </c>
+      <c r="P15">
+        <v>0.8759313262859124</v>
+      </c>
+      <c r="Q15">
+        <v>15.19429465266378</v>
+      </c>
+      <c r="R15">
+        <v>136.748651873974</v>
+      </c>
+      <c r="S15">
+        <v>0.1484275377649981</v>
+      </c>
+      <c r="T15">
+        <v>0.1578813300466805</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>7.616784666666667</v>
+      </c>
+      <c r="H16">
+        <v>22.850354</v>
+      </c>
+      <c r="I16">
+        <v>0.1694511125596505</v>
+      </c>
+      <c r="J16">
+        <v>0.1802439589826321</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.2755583333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.826675</v>
+      </c>
+      <c r="O16">
+        <v>0.120997038724907</v>
+      </c>
+      <c r="P16">
+        <v>0.120997038724907</v>
+      </c>
+      <c r="Q16">
+        <v>2.098868488105555</v>
+      </c>
+      <c r="R16">
+        <v>18.88981639295</v>
+      </c>
+      <c r="S16">
+        <v>0.02050308282835861</v>
+      </c>
+      <c r="T16">
+        <v>0.02180898528495209</v>
       </c>
     </row>
   </sheetData>
